--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_209.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_209.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,638 +488,640 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_21</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1440993788819876</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['Ab', 'Eb:7', 'Ab', 'Ab']]</t>
-        </is>
+          <t>schubert-winterreise_103</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_48</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1339285714285714</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'C:7', 'F:maj', 'F:maj/A']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj'], ['C:maj', 'G:maj', 'C:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(46.75, 47.79)]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj'], ['F:maj', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(16.2, 19.54)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:00.600000', '0:00:09.940000'), ('0:00:10.540000', '0:00:12.720000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:59.500000', '0:01:05.040000'), ('0:00:00.340000', '0:00:17.940000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_236</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_155</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.09642857142857142</v>
-      </c>
-      <c r="D3" t="inlineStr">
+          <t>isophonics_174</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1207729468599034</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>[['D', 'A', 'D']]</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>[['G:maj', 'D:maj', 'G:maj']]</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>[['Db/5', 'Ab', 'Db/5']]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>[(11.82, 17.361)]</t>
-        </is>
-      </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(264.615, 273.028)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:06.536000', '0:00:09.774000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:45.480000', '0:00:48')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_32</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_220</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.3995157384987894</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G', 'G', 'G', 'G', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_85</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_44</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.233974358974359</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D', 'D', 'D/7', 'D/6', 'D/5']]</t>
+          <t>[['F:maj', 'C:7/E', 'F:maj', 'C:7/E', 'F:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(17.22, 24.32)]</t>
+          <t>[['C#/F', 'G#:7/D#', 'C#/F', 'G#:7', 'C#']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(0.325509, 4.348503)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:32.200000', '0:00:38.620000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:43.340000', '0:00:47.700000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jaah_54</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['Bb:7', 'Eb', 'Bb:7', 'Eb']]</t>
-        </is>
+          <t>schubert-winterreise_14</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_167</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.162280701754386</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(33.31, 47.63)]</t>
+          <t>[['G/5', 'C/9', 'G']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(55.64, 62.52)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:01:23.340000', '0:01:27.640000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:00.727609', '0:00:08.204625')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_203</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_30</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.08634868421052631</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D', 'C/9', 'G/5']]</t>
-        </is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A', 'G', 'D']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(1.747868, 6.612448)]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(7.645256, 11.062412)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:02:12.300000', '0:02:17.480000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:02:03.220000', '0:02:07.180000')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_17</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_73</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.5142857142857142</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
-        </is>
+          <t>isophonics_200</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_243</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1485507246376812</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>[['D', 'E', 'A']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(138.02, 142.34)]</t>
+          <t>[['A', 'B', 'E']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(65.2, 67.5)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:01:00.040123', '0:01:11.429511')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:19.616133', '0:00:25.815861')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_95</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_1</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1133333333333333</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['C', 'C/G', 'G:7', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_217</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3882352941176471</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['Eb', 'Eb', 'Bb:7', 'Eb']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(225.32, 230.46)]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(2.77, 10.94)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:02:12.300000', '0:02:16.560000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:06.415079', '0:00:14.054444')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_156</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2757352941176471</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:maj', 'A:maj'], ['D:maj/F#', 'G:maj', 'D:maj']]</t>
-        </is>
+          <t>schubert-winterreise_135</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4375</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'E'], ['A', 'D', 'A']]</t>
+          <t>[['B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(61.8, 69.44), (58.08, 65.66)]</t>
+          <t>[['D:min', 'A:(3,5,b7,b9)', 'D:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(11.964095, 14.54151), (11.070127, 13.723731)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:00:30.160000', '0:00:44.080000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:01:38.700000', '0:01:58.800000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_121</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1202898550724638</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['C:min/G', 'G:7', 'C:min', 'C:min'], ['C', 'C/G', 'G:7', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_234</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3541666666666666</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min', 'F:min'], ['F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(26.96, 33.5), (282.12, 287.58)]</t>
+          <t>[['Eb/5', 'Ab/2', 'Eb']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(2.56, 6.82), (17.94, 20.7)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:55.680000', '0:01:02.280000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:01:15.439000', '0:01:23.381000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_85</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.08684863523573201</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A#:7', 'D#:maj/A#', 'D#:min/A#']]</t>
-        </is>
+          <t>schubert-winterreise_103</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4166666666666667</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['Ab:7', 'Db', 'Db:min']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(3.08, 9.92)]</t>
+          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(36.66, 38.43)]</t>
+          <t>[('0:00:00.600000', '0:00:11.320000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:27', '0:00:49.860000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_3</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_161</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min', 'F:min']]</t>
+          <t>[['C#:maj', 'G#:7', 'C#:maj', 'G#:7', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'F#:7', 'B:maj', 'D#:7/A#', 'A:(3,5)', 'C#:maj', 'A#:(3,5,b7,b9)', 'D#:min/G#', 'F#:maj/G#', 'G#:7', 'C#:maj', 'C#:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(9.48, 25.94)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(2.56, 6.82)]</t>
+          <t>[('0:00:00.480000', '0:00:35.060000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:01.600000', '0:00:41.420000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_9</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_81</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.185</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['B', 'A', 'B']]</t>
-        </is>
+          <t>schubert-winterreise_80</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_150</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['F#', 'E', 'F#']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(33.344378, 38.139299)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(17.699977, 29.426054)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:01.240000', '0:00:15.940000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:00.780000', '0:00:16.040000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+          <t>schubert-winterreise_48</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_84</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>1</v>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
-        </is>
-      </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(11.0, 66.82)]</t>
+          <t>[['D#:maj', 'A#:maj', 'A#:min', 'F:min/C', 'C:7', 'F:min', 'G#:maj', 'G#:min', 'A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj', 'D#:7', 'G#:maj', 'C:(3,5,b7,b9)/G#', 'F:min/G#', 'D#:maj/A#', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(10.1, 63.44)]</t>
+          <t>[('0:00:36.640000', '0:01:18.160000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:40.100000', '0:01:24.580000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_79</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_112</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.07238372093023256</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_60</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_116</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A', 'D/5', 'A']]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(7.284457, 20.438561)]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(0.421247, 4.824512)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:06.300000', '0:01:59.400000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:08.440000', '0:02:12.720000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_12</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_140</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>[['B:min', 'F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(14.9, 28.9)]</t>
+          <t>[['C:min', 'G:7/C', 'G:(3,5,b7,b9)/C', 'C:min', 'G:(3,5,b7,b9)/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(0.56, 6.3)]</t>
+          <t>[('0:00:13.320000', '0:00:43.780000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_179</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D:min/A', 'A:7', 'D:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(131.2, 136.34)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(40.82, 43.62)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:13.640000', '0:00:43.660000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
